--- a/biology/Zoologie/Exoprosopa_romani/Exoprosopa_romani.xlsx
+++ b/biology/Zoologie/Exoprosopa_romani/Exoprosopa_romani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exoprosopa romani est une espèce fossile d'insecte diptère de la famille des Bombyliidae et du genre Exoprosopa.
 </t>
@@ -511,18 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Exoprosopa romani est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2].
-Citation
-En 1966 cette espèce Exoprosopa romani est citée par le catalogue allemand de Stuttgart « Stuttgarter Beiträge zur Naturkunde »[3].
-Sous-famille et tribu
-En 1937 Nicolas Théobald a décrit cette espèce (et ce genre) de la sous-famille des Anthracinae[1].
-En 1999 Neal L. Evenhuis et David John Greathead (d) confirment cette espèce du genre Exoprosopa, ainsi que de la sous-famille des Anthracinae, et ajoute que le genre Exoprosopa est de la tribu des Exoprosopini, et que la sous-famille des Exoprosopinae est synonyme de la tribu des Exoprosopini[4],[2].
-Fossiles
-Selon Paleobiology Database en 2023, deux collections de fossiles sont référencées, l'holotype A71 de la collection de l'institut géologique de Lyon et venant du gypse d'Aix-en-Provence, du Chattien soit de 28,1 à 23,03 Ma, et un cotype des collections du MNHN de Paris et venant aussi d'Aix-en-Provence[5],[1],[2],[note 1].
-Étymologie
-L'épithète spécifique romani est « dédié à M. le professeur Roman de Lyon »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Exoprosopa romani est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,.
 </t>
         </is>
       </c>
@@ -548,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 2] : 
-« Insecte noir, ailes enfumées. tête large ; deux gros yeux arrondis faisant saillie à l'arrière ; front triangulaire ; tête largement appliquée contre le thorax. Thorax ovale, à pilosité longue. Pattes assez fines ; cuisses non renflées, couvertes de poils fins, disposés par endroits en forme d'écussons, de plaques rectangulaires. Tibias allongés, cils raides à l'extrémité (?); les autres articles très fins. ailes à nervation très bien conservée, sauf la nervure transversale Rs-M qui est effacée (v. fig. 15). Balanciers jaunâtres. Abdomen trapu, étiré vers l'arrière, couvert de poils assez fins, huit segments, les derniers sont plus courts et plus étroits. »[1].
-Dimensions
-La longueur totale est de 8 mm ; la tête a une longueur de 1,5 mm et une largeur de 2 mm ; le thorax a une longueur de 2,1 mm et une largeur de 2,5 mm ; l'abdomen a une longueur de 4 mm et une largeur de 2,5 mm ; l'aile a une longueur de 7,5 mm et une largeur de 2,7 mm ; [1].
-Affinités
-« La nervation de l'aile fait attribuer cet échantillon à la sous-famille des Anthracinae. Par ses trois cellules submarginales et la première cellule postérieure ouverte, l'Insecte se range dans le g. Exoprosopa : la nervation est la même. L'espèce actuelle la plus voisine serait Exoprosopa puerula Brunetti des Indes. Notre échantillon est pourtant de taille supérieure, E.puerula ne mesurant que 4,5-6 mm. »[1].
+          <t>Citation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1966 cette espèce Exoprosopa romani est citée par le catalogue allemand de Stuttgart « Stuttgarter Beiträge zur Naturkunde ».
 </t>
         </is>
       </c>
@@ -585,13 +590,240 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-famille et tribu</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1937 Nicolas Théobald a décrit cette espèce (et ce genre) de la sous-famille des Anthracinae.
+En 1999 Neal L. Evenhuis et David John Greathead (d) confirment cette espèce du genre Exoprosopa, ainsi que de la sous-famille des Anthracinae, et ajoute que le genre Exoprosopa est de la tribu des Exoprosopini, et que la sous-famille des Exoprosopinae est synonyme de la tribu des Exoprosopini,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Exoprosopa_romani</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exoprosopa_romani</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, deux collections de fossiles sont référencées, l'holotype A71 de la collection de l'institut géologique de Lyon et venant du gypse d'Aix-en-Provence, du Chattien soit de 28,1 à 23,03 Ma, et un cotype des collections du MNHN de Paris et venant aussi d'Aix-en-Provence[note 1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Exoprosopa_romani</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exoprosopa_romani</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique romani est « dédié à M. le professeur Roman de Lyon ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Exoprosopa_romani</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exoprosopa_romani</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Insecte noir, ailes enfumées. tête large ; deux gros yeux arrondis faisant saillie à l'arrière ; front triangulaire ; tête largement appliquée contre le thorax. Thorax ovale, à pilosité longue. Pattes assez fines ; cuisses non renflées, couvertes de poils fins, disposés par endroits en forme d'écussons, de plaques rectangulaires. Tibias allongés, cils raides à l'extrémité (?); les autres articles très fins. ailes à nervation très bien conservée, sauf la nervure transversale Rs-M qui est effacée (v. fig. 15). Balanciers jaunâtres. Abdomen trapu, étiré vers l'arrière, couvert de poils assez fins, huit segments, les derniers sont plus courts et plus étroits. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Exoprosopa_romani</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exoprosopa_romani</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 8 mm ; la tête a une longueur de 1,5 mm et une largeur de 2 mm ; le thorax a une longueur de 2,1 mm et une largeur de 2,5 mm ; l'abdomen a une longueur de 4 mm et une largeur de 2,5 mm ; l'aile a une longueur de 7,5 mm et une largeur de 2,7 mm ; .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Exoprosopa_romani</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exoprosopa_romani</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« La nervation de l'aile fait attribuer cet échantillon à la sous-famille des Anthracinae. Par ses trois cellules submarginales et la première cellule postérieure ouverte, l'Insecte se range dans le g. Exoprosopa : la nervation est la même. L'espèce actuelle la plus voisine serait Exoprosopa puerula Brunetti des Indes. Notre échantillon est pourtant de taille supérieure, E.puerula ne mesurant que 4,5-6 mm. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Exoprosopa_romani</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exoprosopa_romani</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Les larves sont parasites des Hyménoptères solitaires ou des Lépidoptères. »[1].
+« Les larves sont parasites des Hyménoptères solitaires ou des Lépidoptères. ».
 </t>
         </is>
       </c>
